--- a/rgbvals.xlsx
+++ b/rgbvals.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1062">
   <si>
     <t>deeppink 3</t>
   </si>
@@ -3209,22 +3209,7 @@
     <t>V/I=R</t>
   </si>
   <si>
-    <t>18.75V/mA</t>
-  </si>
-  <si>
     <t>ohm=V/A</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>4.5V</t>
-  </si>
-  <si>
-    <t>diff from 6V</t>
-  </si>
-  <si>
-    <t>3.7V</t>
   </si>
   <si>
     <t>For 20mA</t>
@@ -26149,10 +26134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -26160,7 +26145,7 @@
     <col min="10" max="10" width="10.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1048</v>
       </c>
@@ -26171,10 +26156,10 @@
         <v>1050</v>
       </c>
       <c r="D1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G1" t="s">
         <v>1053</v>
@@ -26186,7 +26171,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>16</v>
       </c>
@@ -26214,115 +26199,59 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H5" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H9">
-        <f>6/0.32</f>
-        <v>18.75</v>
-      </c>
-      <c r="I9" t="s">
         <v>1059</v>
       </c>
-      <c r="K9">
-        <f>5/G2</f>
-        <v>15.625</v>
-      </c>
-      <c r="L9">
-        <f>4.5/G2</f>
-        <v>14.0625</v>
-      </c>
-      <c r="M9">
-        <f>3.7/G2</f>
-        <v>11.5625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="J10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K10">
-        <f>H9-K9</f>
-        <v>3.125</v>
-      </c>
-      <c r="L10">
-        <f>H9-L9</f>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11">
+        <f>1.5/G2</f>
         <v>4.6875</v>
       </c>
-      <c r="M10">
-        <f>H9-M9</f>
-        <v>7.1875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12">
+        <f>I14/G2</f>
+        <v>7.1874999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H13">
-        <f>E2/1000</f>
-        <v>9.5999999999999992E-4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H14">
-        <f>6/H13</f>
-        <v>6250.0000000000009</v>
-      </c>
-      <c r="K14">
-        <f>5/H13</f>
-        <v>5208.3333333333339</v>
-      </c>
-      <c r="M14">
-        <f>3.7/H13</f>
-        <v>3854.166666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="J15" t="s">
-        <v>1063</v>
-      </c>
-      <c r="K15">
-        <f>H14-K14</f>
-        <v>1041.666666666667</v>
-      </c>
-      <c r="M15">
-        <f>H14-M14</f>
-        <v>2395.8333333333339</v>
+        <f>I15/G2</f>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14">
+        <f>6-3.7</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15">
+        <f>6-3.5</f>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/rgbvals.xlsx
+++ b/rgbvals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1061">
   <si>
     <t>deeppink 3</t>
   </si>
@@ -3159,9 +3159,6 @@
   </si>
   <si>
     <t xml:space="preserve">    blue_val = 255 - var; </t>
-  </si>
-  <si>
-    <t>var</t>
   </si>
   <si>
     <t>red</t>
@@ -26136,7 +26133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -26147,28 +26144,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1" t="s">
         <v>1048</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1049</v>
       </c>
-      <c r="C1" t="s">
-        <v>1050</v>
-      </c>
       <c r="D1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1" t="s">
         <v>1060</v>
       </c>
-      <c r="E1" t="s">
-        <v>1061</v>
-      </c>
       <c r="G1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26193,35 +26190,35 @@
         <v>0.32</v>
       </c>
       <c r="H2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26261,5370 +26258,1133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G412"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E1" t="s">
         <v>1043</v>
       </c>
       <c r="F1" t="s">
         <v>1044</v>
       </c>
-      <c r="G1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1041</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <f>50+E2</f>
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <f>255-E2</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <f>2*E2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1042</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">50+E3</f>
-        <v>51</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G36" si="1">255-E3</f>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="F3:F66" si="0">2*E3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E30">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E32">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E33">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E34">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E35">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E36">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E37">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ref="G37:G88" si="2">255-E37</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E38">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E39">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E40">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E41">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E42">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E43">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E44">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E45">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E46">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E47">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E48">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E49">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E50">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E51">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E52">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E53">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E54">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E56">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E57">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E58">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E59">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E60">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E61">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E62">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E63">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E64">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E65">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E66">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67">
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="1">2*E67</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68">
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69">
+        <v>72</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70">
+        <v>73</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71">
+        <v>74</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72">
+        <v>75</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73">
+        <v>76</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74">
+        <v>77</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75">
+        <v>78</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76">
+        <v>79</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77">
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78">
+        <v>81</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79">
+        <v>82</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80">
+        <v>83</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81">
+        <v>84</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82">
+        <v>85</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83">
+        <v>86</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84">
+        <v>87</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85">
+        <v>88</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86">
+        <v>89</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87">
+        <v>90</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88">
+        <v>91</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89">
+        <v>92</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90">
+        <v>93</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91">
+        <v>94</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92">
+        <v>95</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93">
+        <v>96</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94">
+        <v>97</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E95">
+        <v>98</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96">
+        <v>99</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98">
+        <v>101</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99">
+        <v>102</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100">
+        <v>103</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101">
+        <v>104</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102">
+        <v>105</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103">
+        <v>106</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104">
+        <v>107</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105">
+        <v>108</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106">
+        <v>109</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107">
+        <v>110</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108">
+        <v>111</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109">
+        <v>112</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110">
+        <v>113</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111">
         <v>114</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E67">
-        <v>65</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" si="3">50+E67</f>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112">
         <v>115</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E68">
-        <v>66</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="3"/>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113">
         <v>116</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E69">
-        <v>67</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114">
         <v>117</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E70">
-        <v>68</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E115">
         <v>118</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E71">
-        <v>69</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E116">
         <v>119</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E72">
-        <v>70</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117">
         <v>120</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E73">
-        <v>71</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118">
         <v>121</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E74">
-        <v>72</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119">
         <v>122</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E75">
-        <v>73</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="3"/>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120">
         <v>123</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E76">
-        <v>74</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="3"/>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121">
         <v>124</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E77">
-        <v>75</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="3"/>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122">
         <v>125</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E78">
-        <v>76</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="3"/>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123">
         <v>126</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E79">
-        <v>77</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="3"/>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124">
         <v>127</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E80">
-        <v>78</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E81">
-        <v>79</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E82">
-        <v>80</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E83">
-        <v>81</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E84">
-        <v>82</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E85">
-        <v>83</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E86">
-        <v>84</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E87">
-        <v>85</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E88">
-        <v>86</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E89">
-        <v>87</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ref="G89:G152" si="4">255-E89</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E90">
-        <v>88</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="4"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E91">
-        <v>89</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="4"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E92">
-        <v>90</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="4"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E93">
-        <v>91</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E94">
-        <v>92</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="4"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E95">
-        <v>93</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="4"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E96">
-        <v>94</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="4"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E97">
-        <v>95</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E98">
-        <v>96</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="4"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E99">
-        <v>97</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="3"/>
-        <v>147</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="4"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E100">
-        <v>98</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="4"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E101">
-        <v>99</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="4"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E102">
-        <v>100</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E103">
-        <v>101</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="3"/>
-        <v>151</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E104">
-        <v>102</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="4"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E105">
-        <v>103</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="3"/>
-        <v>153</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="4"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E106">
-        <v>104</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="3"/>
-        <v>154</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="4"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E107">
-        <v>105</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E108">
-        <v>106</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="4"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E109">
-        <v>107</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="3"/>
-        <v>157</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="4"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E110">
-        <v>108</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="4"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E111">
-        <v>109</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E112">
-        <v>110</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E113">
-        <v>111</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="3"/>
-        <v>161</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E114">
-        <v>112</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E115">
-        <v>113</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="3"/>
-        <v>163</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="4"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E116">
-        <v>114</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="3"/>
-        <v>164</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="4"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E117">
-        <v>115</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E118">
-        <v>116</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="3"/>
-        <v>166</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E119">
-        <v>117</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="3"/>
-        <v>167</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E120">
-        <v>118</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E121">
-        <v>119</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="4"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E122">
-        <v>120</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E123">
-        <v>121</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="3"/>
-        <v>171</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="4"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E124">
-        <v>122</v>
-      </c>
       <c r="F124">
-        <f t="shared" si="3"/>
-        <v>172</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="4"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E125">
-        <v>123</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="3"/>
-        <v>173</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="4"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E126">
-        <v>124</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="4"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E127">
-        <v>125</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="4"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E128">
-        <v>126</v>
-      </c>
-      <c r="F128">
-        <f t="shared" si="3"/>
-        <v>176</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="4"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E129">
-        <v>127</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="4"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E130">
-        <v>128</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="4"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E131">
-        <v>129</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F194" si="5">50+E131</f>
-        <v>179</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="4"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E132">
-        <v>130</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E133">
-        <v>131</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="5"/>
-        <v>181</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="4"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E134">
-        <v>132</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="5"/>
-        <v>182</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="4"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E135">
-        <v>133</v>
-      </c>
-      <c r="F135">
-        <f t="shared" si="5"/>
-        <v>183</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="4"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E136">
-        <v>134</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="5"/>
-        <v>184</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E137">
-        <v>135</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="5"/>
-        <v>185</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E138">
-        <v>136</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E139">
-        <v>137</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="5"/>
-        <v>187</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E140">
-        <v>138</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="5"/>
-        <v>188</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E141">
-        <v>139</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="5"/>
-        <v>189</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E142">
-        <v>140</v>
-      </c>
-      <c r="F142">
-        <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E143">
-        <v>141</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="5"/>
-        <v>191</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E144">
-        <v>142</v>
-      </c>
-      <c r="F144">
-        <f t="shared" si="5"/>
-        <v>192</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E145">
-        <v>143</v>
-      </c>
-      <c r="F145">
-        <f t="shared" si="5"/>
-        <v>193</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E146">
-        <v>144</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="5"/>
-        <v>194</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E147">
-        <v>145</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E148">
-        <v>146</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="5"/>
-        <v>196</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E149">
-        <v>147</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="5"/>
-        <v>197</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E150">
-        <v>148</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="5"/>
-        <v>198</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E151">
-        <v>149</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="5"/>
-        <v>199</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E152">
-        <v>150</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E153">
-        <v>151</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="5"/>
-        <v>201</v>
-      </c>
-      <c r="G153">
-        <f t="shared" ref="G153:G216" si="6">255-E153</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E154">
-        <v>152</v>
-      </c>
-      <c r="F154">
-        <f t="shared" si="5"/>
-        <v>202</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="6"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E155">
-        <v>153</v>
-      </c>
-      <c r="F155">
-        <f t="shared" si="5"/>
-        <v>203</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E156">
-        <v>154</v>
-      </c>
-      <c r="F156">
-        <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E157">
-        <v>155</v>
-      </c>
-      <c r="F157">
-        <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E158">
-        <v>156</v>
-      </c>
-      <c r="F158">
-        <f t="shared" si="5"/>
-        <v>206</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E159">
-        <v>157</v>
-      </c>
-      <c r="F159">
-        <f t="shared" si="5"/>
-        <v>207</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E160">
-        <v>158</v>
-      </c>
-      <c r="F160">
-        <f t="shared" si="5"/>
-        <v>208</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E161">
-        <v>159</v>
-      </c>
-      <c r="F161">
-        <f t="shared" si="5"/>
-        <v>209</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E162">
-        <v>160</v>
-      </c>
-      <c r="F162">
-        <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E163">
-        <v>161</v>
-      </c>
-      <c r="F163">
-        <f t="shared" si="5"/>
-        <v>211</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E164">
-        <v>162</v>
-      </c>
-      <c r="F164">
-        <f t="shared" si="5"/>
-        <v>212</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E165">
-        <v>163</v>
-      </c>
-      <c r="F165">
-        <f t="shared" si="5"/>
-        <v>213</v>
-      </c>
-      <c r="G165">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E166">
-        <v>164</v>
-      </c>
-      <c r="F166">
-        <f t="shared" si="5"/>
-        <v>214</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E167">
-        <v>165</v>
-      </c>
-      <c r="F167">
-        <f t="shared" si="5"/>
-        <v>215</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E168">
-        <v>166</v>
-      </c>
-      <c r="F168">
-        <f t="shared" si="5"/>
-        <v>216</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E169">
-        <v>167</v>
-      </c>
-      <c r="F169">
-        <f t="shared" si="5"/>
-        <v>217</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E170">
-        <v>168</v>
-      </c>
-      <c r="F170">
-        <f t="shared" si="5"/>
-        <v>218</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E171">
-        <v>169</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="5"/>
-        <v>219</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E172">
-        <v>170</v>
-      </c>
-      <c r="F172">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="G172">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E173">
-        <v>171</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="5"/>
-        <v>221</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E174">
-        <v>172</v>
-      </c>
-      <c r="F174">
-        <f t="shared" si="5"/>
-        <v>222</v>
-      </c>
-      <c r="G174">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E175">
-        <v>173</v>
-      </c>
-      <c r="F175">
-        <f t="shared" si="5"/>
-        <v>223</v>
-      </c>
-      <c r="G175">
-        <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E176">
-        <v>174</v>
-      </c>
-      <c r="F176">
-        <f t="shared" si="5"/>
-        <v>224</v>
-      </c>
-      <c r="G176">
-        <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E177">
-        <v>175</v>
-      </c>
-      <c r="F177">
-        <f t="shared" si="5"/>
-        <v>225</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E178">
-        <v>176</v>
-      </c>
-      <c r="F178">
-        <f t="shared" si="5"/>
-        <v>226</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E179">
-        <v>177</v>
-      </c>
-      <c r="F179">
-        <f t="shared" si="5"/>
-        <v>227</v>
-      </c>
-      <c r="G179">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E180">
-        <v>178</v>
-      </c>
-      <c r="F180">
-        <f t="shared" si="5"/>
-        <v>228</v>
-      </c>
-      <c r="G180">
-        <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E181">
-        <v>179</v>
-      </c>
-      <c r="F181">
-        <f t="shared" si="5"/>
-        <v>229</v>
-      </c>
-      <c r="G181">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E182">
-        <v>180</v>
-      </c>
-      <c r="F182">
-        <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="G182">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E183">
-        <v>181</v>
-      </c>
-      <c r="F183">
-        <f t="shared" si="5"/>
-        <v>231</v>
-      </c>
-      <c r="G183">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E184">
-        <v>182</v>
-      </c>
-      <c r="F184">
-        <f t="shared" si="5"/>
-        <v>232</v>
-      </c>
-      <c r="G184">
-        <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E185">
-        <v>183</v>
-      </c>
-      <c r="F185">
-        <f t="shared" si="5"/>
-        <v>233</v>
-      </c>
-      <c r="G185">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E186">
-        <v>184</v>
-      </c>
-      <c r="F186">
-        <f t="shared" si="5"/>
-        <v>234</v>
-      </c>
-      <c r="G186">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E187">
-        <v>185</v>
-      </c>
-      <c r="F187">
-        <f t="shared" si="5"/>
-        <v>235</v>
-      </c>
-      <c r="G187">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E188">
-        <v>186</v>
-      </c>
-      <c r="F188">
-        <f t="shared" si="5"/>
-        <v>236</v>
-      </c>
-      <c r="G188">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E189">
-        <v>187</v>
-      </c>
-      <c r="F189">
-        <f t="shared" si="5"/>
-        <v>237</v>
-      </c>
-      <c r="G189">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="190" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E190">
-        <v>188</v>
-      </c>
-      <c r="F190">
-        <f t="shared" si="5"/>
-        <v>238</v>
-      </c>
-      <c r="G190">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="191" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E191">
-        <v>189</v>
-      </c>
-      <c r="F191">
-        <f t="shared" si="5"/>
-        <v>239</v>
-      </c>
-      <c r="G191">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="192" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E192">
-        <v>190</v>
-      </c>
-      <c r="F192">
-        <f t="shared" si="5"/>
-        <v>240</v>
-      </c>
-      <c r="G192">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E193">
-        <v>191</v>
-      </c>
-      <c r="F193">
-        <f t="shared" si="5"/>
-        <v>241</v>
-      </c>
-      <c r="G193">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E194">
-        <v>192</v>
-      </c>
-      <c r="F194">
-        <f t="shared" si="5"/>
-        <v>242</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E195">
-        <v>193</v>
-      </c>
-      <c r="F195">
-        <f t="shared" ref="F195:F258" si="7">50+E195</f>
-        <v>243</v>
-      </c>
-      <c r="G195">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E196">
-        <v>194</v>
-      </c>
-      <c r="F196">
-        <f t="shared" si="7"/>
-        <v>244</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E197">
-        <v>195</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="7"/>
-        <v>245</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E198">
-        <v>196</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="7"/>
-        <v>246</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E199">
-        <v>197</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E200">
-        <v>198</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="7"/>
-        <v>248</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E201">
-        <v>199</v>
-      </c>
-      <c r="F201">
-        <f t="shared" si="7"/>
-        <v>249</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E202">
-        <v>200</v>
-      </c>
-      <c r="F202">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E203">
-        <v>201</v>
-      </c>
-      <c r="F203">
-        <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E204">
-        <v>202</v>
-      </c>
-      <c r="F204">
-        <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E205">
-        <v>203</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="7"/>
-        <v>253</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E206">
-        <v>204</v>
-      </c>
-      <c r="F206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>254</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E207">
-        <v>205</v>
-      </c>
-      <c r="F207">
-        <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E208">
-        <v>204</v>
-      </c>
-      <c r="F208">
-        <f t="shared" si="7"/>
-        <v>254</v>
-      </c>
-      <c r="G208">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E209">
-        <v>203</v>
-      </c>
-      <c r="F209">
-        <f t="shared" si="7"/>
-        <v>253</v>
-      </c>
-      <c r="G209">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E210">
-        <v>202</v>
-      </c>
-      <c r="F210">
-        <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="G210">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E211">
-        <v>201</v>
-      </c>
-      <c r="F211">
-        <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-      <c r="G211">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E212">
-        <v>200</v>
-      </c>
-      <c r="F212">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="G212">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E213">
-        <v>199</v>
-      </c>
-      <c r="F213">
-        <f t="shared" si="7"/>
-        <v>249</v>
-      </c>
-      <c r="G213">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E214">
-        <v>198</v>
-      </c>
-      <c r="F214">
-        <f t="shared" si="7"/>
-        <v>248</v>
-      </c>
-      <c r="G214">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E215">
-        <v>197</v>
-      </c>
-      <c r="F215">
-        <f t="shared" si="7"/>
-        <v>247</v>
-      </c>
-      <c r="G215">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E216">
-        <v>196</v>
-      </c>
-      <c r="F216">
-        <f t="shared" si="7"/>
-        <v>246</v>
-      </c>
-      <c r="G216">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E217">
-        <v>195</v>
-      </c>
-      <c r="F217">
-        <f t="shared" si="7"/>
-        <v>245</v>
-      </c>
-      <c r="G217">
-        <f t="shared" ref="G217:G280" si="8">255-E217</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E218">
-        <v>194</v>
-      </c>
-      <c r="F218">
-        <f t="shared" si="7"/>
-        <v>244</v>
-      </c>
-      <c r="G218">
-        <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E219">
-        <v>193</v>
-      </c>
-      <c r="F219">
-        <f t="shared" si="7"/>
-        <v>243</v>
-      </c>
-      <c r="G219">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E220">
-        <v>192</v>
-      </c>
-      <c r="F220">
-        <f t="shared" si="7"/>
-        <v>242</v>
-      </c>
-      <c r="G220">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E221">
-        <v>191</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="7"/>
-        <v>241</v>
-      </c>
-      <c r="G221">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E222">
-        <v>190</v>
-      </c>
-      <c r="F222">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="8"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E223">
-        <v>189</v>
-      </c>
-      <c r="F223">
-        <f t="shared" si="7"/>
-        <v>239</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E224">
-        <v>188</v>
-      </c>
-      <c r="F224">
-        <f t="shared" si="7"/>
-        <v>238</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="8"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E225">
-        <v>187</v>
-      </c>
-      <c r="F225">
-        <f t="shared" si="7"/>
-        <v>237</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E226">
-        <v>186</v>
-      </c>
-      <c r="F226">
-        <f t="shared" si="7"/>
-        <v>236</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E227">
-        <v>185</v>
-      </c>
-      <c r="F227">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="228" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E228">
-        <v>184</v>
-      </c>
-      <c r="F228">
-        <f t="shared" si="7"/>
-        <v>234</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="229" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E229">
-        <v>183</v>
-      </c>
-      <c r="F229">
-        <f t="shared" si="7"/>
-        <v>233</v>
-      </c>
-      <c r="G229">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="230" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E230">
-        <v>182</v>
-      </c>
-      <c r="F230">
-        <f t="shared" si="7"/>
-        <v>232</v>
-      </c>
-      <c r="G230">
-        <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="231" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E231">
-        <v>181</v>
-      </c>
-      <c r="F231">
-        <f t="shared" si="7"/>
-        <v>231</v>
-      </c>
-      <c r="G231">
-        <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="232" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E232">
-        <v>180</v>
-      </c>
-      <c r="F232">
-        <f t="shared" si="7"/>
-        <v>230</v>
-      </c>
-      <c r="G232">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="233" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E233">
-        <v>179</v>
-      </c>
-      <c r="F233">
-        <f t="shared" si="7"/>
-        <v>229</v>
-      </c>
-      <c r="G233">
-        <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="234" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E234">
-        <v>178</v>
-      </c>
-      <c r="F234">
-        <f t="shared" si="7"/>
-        <v>228</v>
-      </c>
-      <c r="G234">
-        <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="235" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E235">
-        <v>177</v>
-      </c>
-      <c r="F235">
-        <f t="shared" si="7"/>
-        <v>227</v>
-      </c>
-      <c r="G235">
-        <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="236" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E236">
-        <v>176</v>
-      </c>
-      <c r="F236">
-        <f t="shared" si="7"/>
-        <v>226</v>
-      </c>
-      <c r="G236">
-        <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="237" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E237">
-        <v>175</v>
-      </c>
-      <c r="F237">
-        <f t="shared" si="7"/>
-        <v>225</v>
-      </c>
-      <c r="G237">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="238" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E238">
-        <v>174</v>
-      </c>
-      <c r="F238">
-        <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-      <c r="G238">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="239" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E239">
-        <v>173</v>
-      </c>
-      <c r="F239">
-        <f t="shared" si="7"/>
-        <v>223</v>
-      </c>
-      <c r="G239">
-        <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="240" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E240">
-        <v>172</v>
-      </c>
-      <c r="F240">
-        <f t="shared" si="7"/>
-        <v>222</v>
-      </c>
-      <c r="G240">
-        <f t="shared" si="8"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E241">
-        <v>171</v>
-      </c>
-      <c r="F241">
-        <f t="shared" si="7"/>
-        <v>221</v>
-      </c>
-      <c r="G241">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E242">
-        <v>170</v>
-      </c>
-      <c r="F242">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-      <c r="G242">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E243">
-        <v>169</v>
-      </c>
-      <c r="F243">
-        <f t="shared" si="7"/>
-        <v>219</v>
-      </c>
-      <c r="G243">
-        <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E244">
-        <v>168</v>
-      </c>
-      <c r="F244">
-        <f t="shared" si="7"/>
-        <v>218</v>
-      </c>
-      <c r="G244">
-        <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="245" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E245">
-        <v>167</v>
-      </c>
-      <c r="F245">
-        <f t="shared" si="7"/>
-        <v>217</v>
-      </c>
-      <c r="G245">
-        <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E246">
-        <v>166</v>
-      </c>
-      <c r="F246">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="G246">
-        <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E247">
-        <v>165</v>
-      </c>
-      <c r="F247">
-        <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-      <c r="G247">
-        <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="248" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E248">
-        <v>164</v>
-      </c>
-      <c r="F248">
-        <f t="shared" si="7"/>
-        <v>214</v>
-      </c>
-      <c r="G248">
-        <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="249" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E249">
-        <v>163</v>
-      </c>
-      <c r="F249">
-        <f t="shared" si="7"/>
-        <v>213</v>
-      </c>
-      <c r="G249">
-        <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="250" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E250">
-        <v>162</v>
-      </c>
-      <c r="F250">
-        <f t="shared" si="7"/>
-        <v>212</v>
-      </c>
-      <c r="G250">
-        <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E251">
-        <v>161</v>
-      </c>
-      <c r="F251">
-        <f t="shared" si="7"/>
-        <v>211</v>
-      </c>
-      <c r="G251">
-        <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="252" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E252">
-        <v>160</v>
-      </c>
-      <c r="F252">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="G252">
-        <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="253" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E253">
-        <v>159</v>
-      </c>
-      <c r="F253">
-        <f t="shared" si="7"/>
-        <v>209</v>
-      </c>
-      <c r="G253">
-        <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="254" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E254">
-        <v>158</v>
-      </c>
-      <c r="F254">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-      <c r="G254">
-        <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="255" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E255">
-        <v>157</v>
-      </c>
-      <c r="F255">
-        <f t="shared" si="7"/>
-        <v>207</v>
-      </c>
-      <c r="G255">
-        <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="256" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E256">
-        <v>156</v>
-      </c>
-      <c r="F256">
-        <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
-      <c r="G256">
-        <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E257">
-        <v>155</v>
-      </c>
-      <c r="F257">
-        <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-      <c r="G257">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E258">
-        <v>154</v>
-      </c>
-      <c r="F258">
-        <f t="shared" si="7"/>
-        <v>204</v>
-      </c>
-      <c r="G258">
-        <f t="shared" si="8"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E259">
-        <v>153</v>
-      </c>
-      <c r="F259">
-        <f t="shared" ref="F259:F322" si="9">50+E259</f>
-        <v>203</v>
-      </c>
-      <c r="G259">
-        <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E260">
-        <v>152</v>
-      </c>
-      <c r="F260">
-        <f t="shared" si="9"/>
-        <v>202</v>
-      </c>
-      <c r="G260">
-        <f t="shared" si="8"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E261">
-        <v>151</v>
-      </c>
-      <c r="F261">
-        <f t="shared" si="9"/>
-        <v>201</v>
-      </c>
-      <c r="G261">
-        <f t="shared" si="8"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E262">
-        <v>150</v>
-      </c>
-      <c r="F262">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="G262">
-        <f t="shared" si="8"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E263">
-        <v>149</v>
-      </c>
-      <c r="F263">
-        <f t="shared" si="9"/>
-        <v>199</v>
-      </c>
-      <c r="G263">
-        <f t="shared" si="8"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E264">
-        <v>148</v>
-      </c>
-      <c r="F264">
-        <f t="shared" si="9"/>
-        <v>198</v>
-      </c>
-      <c r="G264">
-        <f t="shared" si="8"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E265">
-        <v>147</v>
-      </c>
-      <c r="F265">
-        <f t="shared" si="9"/>
-        <v>197</v>
-      </c>
-      <c r="G265">
-        <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E266">
-        <v>146</v>
-      </c>
-      <c r="F266">
-        <f t="shared" si="9"/>
-        <v>196</v>
-      </c>
-      <c r="G266">
-        <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E267">
-        <v>145</v>
-      </c>
-      <c r="F267">
-        <f t="shared" si="9"/>
-        <v>195</v>
-      </c>
-      <c r="G267">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E268">
-        <v>144</v>
-      </c>
-      <c r="F268">
-        <f t="shared" si="9"/>
-        <v>194</v>
-      </c>
-      <c r="G268">
-        <f t="shared" si="8"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E269">
-        <v>143</v>
-      </c>
-      <c r="F269">
-        <f t="shared" si="9"/>
-        <v>193</v>
-      </c>
-      <c r="G269">
-        <f t="shared" si="8"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E270">
-        <v>142</v>
-      </c>
-      <c r="F270">
-        <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="G270">
-        <f t="shared" si="8"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E271">
-        <v>141</v>
-      </c>
-      <c r="F271">
-        <f t="shared" si="9"/>
-        <v>191</v>
-      </c>
-      <c r="G271">
-        <f t="shared" si="8"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E272">
-        <v>140</v>
-      </c>
-      <c r="F272">
-        <f t="shared" si="9"/>
-        <v>190</v>
-      </c>
-      <c r="G272">
-        <f t="shared" si="8"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E273">
-        <v>139</v>
-      </c>
-      <c r="F273">
-        <f t="shared" si="9"/>
-        <v>189</v>
-      </c>
-      <c r="G273">
-        <f t="shared" si="8"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E274">
-        <v>138</v>
-      </c>
-      <c r="F274">
-        <f t="shared" si="9"/>
-        <v>188</v>
-      </c>
-      <c r="G274">
-        <f t="shared" si="8"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E275">
-        <v>137</v>
-      </c>
-      <c r="F275">
-        <f t="shared" si="9"/>
-        <v>187</v>
-      </c>
-      <c r="G275">
-        <f t="shared" si="8"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E276">
-        <v>136</v>
-      </c>
-      <c r="F276">
-        <f t="shared" si="9"/>
-        <v>186</v>
-      </c>
-      <c r="G276">
-        <f t="shared" si="8"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E277">
-        <v>135</v>
-      </c>
-      <c r="F277">
-        <f t="shared" si="9"/>
-        <v>185</v>
-      </c>
-      <c r="G277">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E278">
-        <v>134</v>
-      </c>
-      <c r="F278">
-        <f t="shared" si="9"/>
-        <v>184</v>
-      </c>
-      <c r="G278">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E279">
-        <v>133</v>
-      </c>
-      <c r="F279">
-        <f t="shared" si="9"/>
-        <v>183</v>
-      </c>
-      <c r="G279">
-        <f t="shared" si="8"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E280">
-        <v>132</v>
-      </c>
-      <c r="F280">
-        <f t="shared" si="9"/>
-        <v>182</v>
-      </c>
-      <c r="G280">
-        <f t="shared" si="8"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E281">
-        <v>131</v>
-      </c>
-      <c r="F281">
-        <f t="shared" si="9"/>
-        <v>181</v>
-      </c>
-      <c r="G281">
-        <f t="shared" ref="G281:G344" si="10">255-E281</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E282">
-        <v>130</v>
-      </c>
-      <c r="F282">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
-      <c r="G282">
-        <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E283">
-        <v>129</v>
-      </c>
-      <c r="F283">
-        <f t="shared" si="9"/>
-        <v>179</v>
-      </c>
-      <c r="G283">
-        <f t="shared" si="10"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E284">
-        <v>128</v>
-      </c>
-      <c r="F284">
-        <f t="shared" si="9"/>
-        <v>178</v>
-      </c>
-      <c r="G284">
-        <f t="shared" si="10"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E285">
-        <v>127</v>
-      </c>
-      <c r="F285">
-        <f t="shared" si="9"/>
-        <v>177</v>
-      </c>
-      <c r="G285">
-        <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E286">
-        <v>126</v>
-      </c>
-      <c r="F286">
-        <f t="shared" si="9"/>
-        <v>176</v>
-      </c>
-      <c r="G286">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E287">
-        <v>125</v>
-      </c>
-      <c r="F287">
-        <f t="shared" si="9"/>
-        <v>175</v>
-      </c>
-      <c r="G287">
-        <f t="shared" si="10"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E288">
-        <v>124</v>
-      </c>
-      <c r="F288">
-        <f t="shared" si="9"/>
-        <v>174</v>
-      </c>
-      <c r="G288">
-        <f t="shared" si="10"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E289">
-        <v>123</v>
-      </c>
-      <c r="F289">
-        <f t="shared" si="9"/>
-        <v>173</v>
-      </c>
-      <c r="G289">
-        <f t="shared" si="10"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E290">
-        <v>122</v>
-      </c>
-      <c r="F290">
-        <f t="shared" si="9"/>
-        <v>172</v>
-      </c>
-      <c r="G290">
-        <f t="shared" si="10"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E291">
-        <v>121</v>
-      </c>
-      <c r="F291">
-        <f t="shared" si="9"/>
-        <v>171</v>
-      </c>
-      <c r="G291">
-        <f t="shared" si="10"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E292">
-        <v>120</v>
-      </c>
-      <c r="F292">
-        <f t="shared" si="9"/>
-        <v>170</v>
-      </c>
-      <c r="G292">
-        <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E293">
-        <v>119</v>
-      </c>
-      <c r="F293">
-        <f t="shared" si="9"/>
-        <v>169</v>
-      </c>
-      <c r="G293">
-        <f t="shared" si="10"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E294">
-        <v>118</v>
-      </c>
-      <c r="F294">
-        <f t="shared" si="9"/>
-        <v>168</v>
-      </c>
-      <c r="G294">
-        <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E295">
-        <v>117</v>
-      </c>
-      <c r="F295">
-        <f t="shared" si="9"/>
-        <v>167</v>
-      </c>
-      <c r="G295">
-        <f t="shared" si="10"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E296">
-        <v>116</v>
-      </c>
-      <c r="F296">
-        <f t="shared" si="9"/>
-        <v>166</v>
-      </c>
-      <c r="G296">
-        <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E297">
-        <v>115</v>
-      </c>
-      <c r="F297">
-        <f t="shared" si="9"/>
-        <v>165</v>
-      </c>
-      <c r="G297">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E298">
-        <v>114</v>
-      </c>
-      <c r="F298">
-        <f t="shared" si="9"/>
-        <v>164</v>
-      </c>
-      <c r="G298">
-        <f t="shared" si="10"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E299">
-        <v>113</v>
-      </c>
-      <c r="F299">
-        <f t="shared" si="9"/>
-        <v>163</v>
-      </c>
-      <c r="G299">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E300">
-        <v>112</v>
-      </c>
-      <c r="F300">
-        <f t="shared" si="9"/>
-        <v>162</v>
-      </c>
-      <c r="G300">
-        <f t="shared" si="10"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E301">
-        <v>111</v>
-      </c>
-      <c r="F301">
-        <f t="shared" si="9"/>
-        <v>161</v>
-      </c>
-      <c r="G301">
-        <f t="shared" si="10"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="302" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E302">
-        <v>110</v>
-      </c>
-      <c r="F302">
-        <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G302">
-        <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="303" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E303">
-        <v>109</v>
-      </c>
-      <c r="F303">
-        <f t="shared" si="9"/>
-        <v>159</v>
-      </c>
-      <c r="G303">
-        <f t="shared" si="10"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="304" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E304">
-        <v>108</v>
-      </c>
-      <c r="F304">
-        <f t="shared" si="9"/>
-        <v>158</v>
-      </c>
-      <c r="G304">
-        <f t="shared" si="10"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E305">
-        <v>107</v>
-      </c>
-      <c r="F305">
-        <f t="shared" si="9"/>
-        <v>157</v>
-      </c>
-      <c r="G305">
-        <f t="shared" si="10"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E306">
-        <v>106</v>
-      </c>
-      <c r="F306">
-        <f t="shared" si="9"/>
-        <v>156</v>
-      </c>
-      <c r="G306">
-        <f t="shared" si="10"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E307">
-        <v>105</v>
-      </c>
-      <c r="F307">
-        <f t="shared" si="9"/>
-        <v>155</v>
-      </c>
-      <c r="G307">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E308">
-        <v>104</v>
-      </c>
-      <c r="F308">
-        <f t="shared" si="9"/>
-        <v>154</v>
-      </c>
-      <c r="G308">
-        <f t="shared" si="10"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E309">
-        <v>103</v>
-      </c>
-      <c r="F309">
-        <f t="shared" si="9"/>
-        <v>153</v>
-      </c>
-      <c r="G309">
-        <f t="shared" si="10"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="310" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E310">
-        <v>102</v>
-      </c>
-      <c r="F310">
-        <f t="shared" si="9"/>
-        <v>152</v>
-      </c>
-      <c r="G310">
-        <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E311">
-        <v>101</v>
-      </c>
-      <c r="F311">
-        <f t="shared" si="9"/>
-        <v>151</v>
-      </c>
-      <c r="G311">
-        <f t="shared" si="10"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E312">
-        <v>100</v>
-      </c>
-      <c r="F312">
-        <f t="shared" si="9"/>
-        <v>150</v>
-      </c>
-      <c r="G312">
-        <f t="shared" si="10"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E313">
-        <v>99</v>
-      </c>
-      <c r="F313">
-        <f t="shared" si="9"/>
-        <v>149</v>
-      </c>
-      <c r="G313">
-        <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E314">
-        <v>98</v>
-      </c>
-      <c r="F314">
-        <f t="shared" si="9"/>
-        <v>148</v>
-      </c>
-      <c r="G314">
-        <f t="shared" si="10"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E315">
-        <v>97</v>
-      </c>
-      <c r="F315">
-        <f t="shared" si="9"/>
-        <v>147</v>
-      </c>
-      <c r="G315">
-        <f t="shared" si="10"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E316">
-        <v>96</v>
-      </c>
-      <c r="F316">
-        <f t="shared" si="9"/>
-        <v>146</v>
-      </c>
-      <c r="G316">
-        <f t="shared" si="10"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E317">
-        <v>95</v>
-      </c>
-      <c r="F317">
-        <f t="shared" si="9"/>
-        <v>145</v>
-      </c>
-      <c r="G317">
-        <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E318">
-        <v>94</v>
-      </c>
-      <c r="F318">
-        <f t="shared" si="9"/>
-        <v>144</v>
-      </c>
-      <c r="G318">
-        <f t="shared" si="10"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E319">
-        <v>93</v>
-      </c>
-      <c r="F319">
-        <f t="shared" si="9"/>
-        <v>143</v>
-      </c>
-      <c r="G319">
-        <f t="shared" si="10"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E320">
-        <v>92</v>
-      </c>
-      <c r="F320">
-        <f t="shared" si="9"/>
-        <v>142</v>
-      </c>
-      <c r="G320">
-        <f t="shared" si="10"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E321">
-        <v>91</v>
-      </c>
-      <c r="F321">
-        <f t="shared" si="9"/>
-        <v>141</v>
-      </c>
-      <c r="G321">
-        <f t="shared" si="10"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E322">
-        <v>90</v>
-      </c>
-      <c r="F322">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="G322">
-        <f t="shared" si="10"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E323">
-        <v>89</v>
-      </c>
-      <c r="F323">
-        <f t="shared" ref="F323:F386" si="11">50+E323</f>
-        <v>139</v>
-      </c>
-      <c r="G323">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E324">
-        <v>88</v>
-      </c>
-      <c r="F324">
-        <f t="shared" si="11"/>
-        <v>138</v>
-      </c>
-      <c r="G324">
-        <f t="shared" si="10"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="325" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E325">
-        <v>87</v>
-      </c>
-      <c r="F325">
-        <f t="shared" si="11"/>
-        <v>137</v>
-      </c>
-      <c r="G325">
-        <f t="shared" si="10"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="326" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E326">
-        <v>86</v>
-      </c>
-      <c r="F326">
-        <f t="shared" si="11"/>
-        <v>136</v>
-      </c>
-      <c r="G326">
-        <f t="shared" si="10"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="327" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E327">
-        <v>85</v>
-      </c>
-      <c r="F327">
-        <f t="shared" si="11"/>
-        <v>135</v>
-      </c>
-      <c r="G327">
-        <f t="shared" si="10"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="328" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E328">
-        <v>84</v>
-      </c>
-      <c r="F328">
-        <f t="shared" si="11"/>
-        <v>134</v>
-      </c>
-      <c r="G328">
-        <f t="shared" si="10"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="329" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E329">
-        <v>83</v>
-      </c>
-      <c r="F329">
-        <f t="shared" si="11"/>
-        <v>133</v>
-      </c>
-      <c r="G329">
-        <f t="shared" si="10"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="330" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E330">
-        <v>82</v>
-      </c>
-      <c r="F330">
-        <f t="shared" si="11"/>
-        <v>132</v>
-      </c>
-      <c r="G330">
-        <f t="shared" si="10"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="331" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E331">
-        <v>81</v>
-      </c>
-      <c r="F331">
-        <f t="shared" si="11"/>
-        <v>131</v>
-      </c>
-      <c r="G331">
-        <f t="shared" si="10"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="332" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E332">
-        <v>80</v>
-      </c>
-      <c r="F332">
-        <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-      <c r="G332">
-        <f t="shared" si="10"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="333" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E333">
-        <v>79</v>
-      </c>
-      <c r="F333">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="G333">
-        <f t="shared" si="10"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="334" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E334">
-        <v>78</v>
-      </c>
-      <c r="F334">
-        <f t="shared" si="11"/>
-        <v>128</v>
-      </c>
-      <c r="G334">
-        <f t="shared" si="10"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="335" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E335">
-        <v>77</v>
-      </c>
-      <c r="F335">
-        <f t="shared" si="11"/>
-        <v>127</v>
-      </c>
-      <c r="G335">
-        <f t="shared" si="10"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="336" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E336">
-        <v>76</v>
-      </c>
-      <c r="F336">
-        <f t="shared" si="11"/>
-        <v>126</v>
-      </c>
-      <c r="G336">
-        <f t="shared" si="10"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="337" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E337">
-        <v>75</v>
-      </c>
-      <c r="F337">
-        <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-      <c r="G337">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="338" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E338">
-        <v>74</v>
-      </c>
-      <c r="F338">
-        <f t="shared" si="11"/>
-        <v>124</v>
-      </c>
-      <c r="G338">
-        <f t="shared" si="10"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="339" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E339">
-        <v>73</v>
-      </c>
-      <c r="F339">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-      <c r="G339">
-        <f t="shared" si="10"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="340" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E340">
-        <v>72</v>
-      </c>
-      <c r="F340">
-        <f t="shared" si="11"/>
-        <v>122</v>
-      </c>
-      <c r="G340">
-        <f t="shared" si="10"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="341" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E341">
-        <v>71</v>
-      </c>
-      <c r="F341">
-        <f t="shared" si="11"/>
-        <v>121</v>
-      </c>
-      <c r="G341">
-        <f t="shared" si="10"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="342" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E342">
-        <v>70</v>
-      </c>
-      <c r="F342">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="G342">
-        <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="343" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E343">
-        <v>69</v>
-      </c>
-      <c r="F343">
-        <f t="shared" si="11"/>
-        <v>119</v>
-      </c>
-      <c r="G343">
-        <f t="shared" si="10"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="344" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E344">
-        <v>68</v>
-      </c>
-      <c r="F344">
-        <f t="shared" si="11"/>
-        <v>118</v>
-      </c>
-      <c r="G344">
-        <f t="shared" si="10"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="345" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E345">
-        <v>67</v>
-      </c>
-      <c r="F345">
-        <f t="shared" si="11"/>
-        <v>117</v>
-      </c>
-      <c r="G345">
-        <f t="shared" ref="G345:G408" si="12">255-E345</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="346" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E346">
-        <v>66</v>
-      </c>
-      <c r="F346">
-        <f t="shared" si="11"/>
-        <v>116</v>
-      </c>
-      <c r="G346">
-        <f t="shared" si="12"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="347" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E347">
-        <v>65</v>
-      </c>
-      <c r="F347">
-        <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="G347">
-        <f t="shared" si="12"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="348" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E348">
-        <v>64</v>
-      </c>
-      <c r="F348">
-        <f t="shared" si="11"/>
-        <v>114</v>
-      </c>
-      <c r="G348">
-        <f t="shared" si="12"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="349" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E349">
-        <v>63</v>
-      </c>
-      <c r="F349">
-        <f t="shared" si="11"/>
-        <v>113</v>
-      </c>
-      <c r="G349">
-        <f t="shared" si="12"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="350" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E350">
-        <v>62</v>
-      </c>
-      <c r="F350">
-        <f t="shared" si="11"/>
-        <v>112</v>
-      </c>
-      <c r="G350">
-        <f t="shared" si="12"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="351" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E351">
-        <v>61</v>
-      </c>
-      <c r="F351">
-        <f t="shared" si="11"/>
-        <v>111</v>
-      </c>
-      <c r="G351">
-        <f t="shared" si="12"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="352" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E352">
-        <v>60</v>
-      </c>
-      <c r="F352">
-        <f t="shared" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="G352">
-        <f t="shared" si="12"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="353" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E353">
-        <v>59</v>
-      </c>
-      <c r="F353">
-        <f t="shared" si="11"/>
-        <v>109</v>
-      </c>
-      <c r="G353">
-        <f t="shared" si="12"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="354" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E354">
-        <v>58</v>
-      </c>
-      <c r="F354">
-        <f t="shared" si="11"/>
-        <v>108</v>
-      </c>
-      <c r="G354">
-        <f t="shared" si="12"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="355" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E355">
-        <v>57</v>
-      </c>
-      <c r="F355">
-        <f t="shared" si="11"/>
-        <v>107</v>
-      </c>
-      <c r="G355">
-        <f t="shared" si="12"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="356" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E356">
-        <v>56</v>
-      </c>
-      <c r="F356">
-        <f t="shared" si="11"/>
-        <v>106</v>
-      </c>
-      <c r="G356">
-        <f t="shared" si="12"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="357" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E357">
-        <v>55</v>
-      </c>
-      <c r="F357">
-        <f t="shared" si="11"/>
-        <v>105</v>
-      </c>
-      <c r="G357">
-        <f t="shared" si="12"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="358" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E358">
-        <v>54</v>
-      </c>
-      <c r="F358">
-        <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-      <c r="G358">
-        <f t="shared" si="12"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="359" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E359">
-        <v>53</v>
-      </c>
-      <c r="F359">
-        <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="G359">
-        <f t="shared" si="12"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="360" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E360">
-        <v>52</v>
-      </c>
-      <c r="F360">
-        <f t="shared" si="11"/>
-        <v>102</v>
-      </c>
-      <c r="G360">
-        <f t="shared" si="12"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="361" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E361">
-        <v>51</v>
-      </c>
-      <c r="F361">
-        <f t="shared" si="11"/>
-        <v>101</v>
-      </c>
-      <c r="G361">
-        <f t="shared" si="12"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="362" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E362">
-        <v>50</v>
-      </c>
-      <c r="F362">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="G362">
-        <f t="shared" si="12"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="363" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E363">
-        <v>49</v>
-      </c>
-      <c r="F363">
-        <f t="shared" si="11"/>
-        <v>99</v>
-      </c>
-      <c r="G363">
-        <f t="shared" si="12"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="364" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E364">
-        <v>48</v>
-      </c>
-      <c r="F364">
-        <f t="shared" si="11"/>
-        <v>98</v>
-      </c>
-      <c r="G364">
-        <f t="shared" si="12"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="365" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E365">
-        <v>47</v>
-      </c>
-      <c r="F365">
-        <f t="shared" si="11"/>
-        <v>97</v>
-      </c>
-      <c r="G365">
-        <f t="shared" si="12"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="366" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E366">
-        <v>46</v>
-      </c>
-      <c r="F366">
-        <f t="shared" si="11"/>
-        <v>96</v>
-      </c>
-      <c r="G366">
-        <f t="shared" si="12"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="367" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E367">
-        <v>45</v>
-      </c>
-      <c r="F367">
-        <f t="shared" si="11"/>
-        <v>95</v>
-      </c>
-      <c r="G367">
-        <f t="shared" si="12"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="368" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E368">
-        <v>44</v>
-      </c>
-      <c r="F368">
-        <f t="shared" si="11"/>
-        <v>94</v>
-      </c>
-      <c r="G368">
-        <f t="shared" si="12"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="369" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E369">
-        <v>43</v>
-      </c>
-      <c r="F369">
-        <f t="shared" si="11"/>
-        <v>93</v>
-      </c>
-      <c r="G369">
-        <f t="shared" si="12"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="370" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E370">
-        <v>42</v>
-      </c>
-      <c r="F370">
-        <f t="shared" si="11"/>
-        <v>92</v>
-      </c>
-      <c r="G370">
-        <f t="shared" si="12"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="371" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E371">
-        <v>41</v>
-      </c>
-      <c r="F371">
-        <f t="shared" si="11"/>
-        <v>91</v>
-      </c>
-      <c r="G371">
-        <f t="shared" si="12"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="372" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E372">
-        <v>40</v>
-      </c>
-      <c r="F372">
-        <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="G372">
-        <f t="shared" si="12"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="373" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E373">
-        <v>39</v>
-      </c>
-      <c r="F373">
-        <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="G373">
-        <f t="shared" si="12"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="374" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E374">
-        <v>38</v>
-      </c>
-      <c r="F374">
-        <f t="shared" si="11"/>
-        <v>88</v>
-      </c>
-      <c r="G374">
-        <f t="shared" si="12"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="375" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E375">
-        <v>37</v>
-      </c>
-      <c r="F375">
-        <f t="shared" si="11"/>
-        <v>87</v>
-      </c>
-      <c r="G375">
-        <f t="shared" si="12"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="376" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E376">
-        <v>36</v>
-      </c>
-      <c r="F376">
-        <f t="shared" si="11"/>
-        <v>86</v>
-      </c>
-      <c r="G376">
-        <f t="shared" si="12"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="377" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E377">
-        <v>35</v>
-      </c>
-      <c r="F377">
-        <f t="shared" si="11"/>
-        <v>85</v>
-      </c>
-      <c r="G377">
-        <f t="shared" si="12"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="378" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E378">
-        <v>34</v>
-      </c>
-      <c r="F378">
-        <f t="shared" si="11"/>
-        <v>84</v>
-      </c>
-      <c r="G378">
-        <f t="shared" si="12"/>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="379" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E379">
-        <v>33</v>
-      </c>
-      <c r="F379">
-        <f t="shared" si="11"/>
-        <v>83</v>
-      </c>
-      <c r="G379">
-        <f t="shared" si="12"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="380" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E380">
-        <v>32</v>
-      </c>
-      <c r="F380">
-        <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="G380">
-        <f t="shared" si="12"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="381" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E381">
-        <v>31</v>
-      </c>
-      <c r="F381">
-        <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="G381">
-        <f t="shared" si="12"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="382" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E382">
-        <v>30</v>
-      </c>
-      <c r="F382">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="G382">
-        <f t="shared" si="12"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="383" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E383">
-        <v>29</v>
-      </c>
-      <c r="F383">
-        <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="G383">
-        <f t="shared" si="12"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="384" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E384">
-        <v>28</v>
-      </c>
-      <c r="F384">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="G384">
-        <f t="shared" si="12"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="385" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E385">
-        <v>27</v>
-      </c>
-      <c r="F385">
-        <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-      <c r="G385">
-        <f t="shared" si="12"/>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="386" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E386">
-        <v>26</v>
-      </c>
-      <c r="F386">
-        <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="G386">
-        <f t="shared" si="12"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="387" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E387">
-        <v>25</v>
-      </c>
-      <c r="F387">
-        <f t="shared" ref="F387:F412" si="13">50+E387</f>
-        <v>75</v>
-      </c>
-      <c r="G387">
-        <f t="shared" si="12"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="388" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E388">
-        <v>24</v>
-      </c>
-      <c r="F388">
-        <f t="shared" si="13"/>
-        <v>74</v>
-      </c>
-      <c r="G388">
-        <f t="shared" si="12"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="389" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E389">
-        <v>23</v>
-      </c>
-      <c r="F389">
-        <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-      <c r="G389">
-        <f t="shared" si="12"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="390" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E390">
-        <v>22</v>
-      </c>
-      <c r="F390">
-        <f t="shared" si="13"/>
-        <v>72</v>
-      </c>
-      <c r="G390">
-        <f t="shared" si="12"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="391" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E391">
-        <v>21</v>
-      </c>
-      <c r="F391">
-        <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="G391">
-        <f t="shared" si="12"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="392" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E392">
-        <v>20</v>
-      </c>
-      <c r="F392">
-        <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="G392">
-        <f t="shared" si="12"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="393" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E393">
-        <v>19</v>
-      </c>
-      <c r="F393">
-        <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="G393">
-        <f t="shared" si="12"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="394" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E394">
-        <v>18</v>
-      </c>
-      <c r="F394">
-        <f t="shared" si="13"/>
-        <v>68</v>
-      </c>
-      <c r="G394">
-        <f t="shared" si="12"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="395" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E395">
-        <v>17</v>
-      </c>
-      <c r="F395">
-        <f t="shared" si="13"/>
-        <v>67</v>
-      </c>
-      <c r="G395">
-        <f t="shared" si="12"/>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="396" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E396">
-        <v>16</v>
-      </c>
-      <c r="F396">
-        <f t="shared" si="13"/>
-        <v>66</v>
-      </c>
-      <c r="G396">
-        <f t="shared" si="12"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="397" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E397">
-        <v>15</v>
-      </c>
-      <c r="F397">
-        <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-      <c r="G397">
-        <f t="shared" si="12"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="398" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E398">
-        <v>14</v>
-      </c>
-      <c r="F398">
-        <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-      <c r="G398">
-        <f t="shared" si="12"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="399" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E399">
-        <v>13</v>
-      </c>
-      <c r="F399">
-        <f t="shared" si="13"/>
-        <v>63</v>
-      </c>
-      <c r="G399">
-        <f t="shared" si="12"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="400" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E400">
-        <v>12</v>
-      </c>
-      <c r="F400">
-        <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="G400">
-        <f t="shared" si="12"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="401" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E401">
-        <v>11</v>
-      </c>
-      <c r="F401">
-        <f t="shared" si="13"/>
-        <v>61</v>
-      </c>
-      <c r="G401">
-        <f t="shared" si="12"/>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="402" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E402">
-        <v>10</v>
-      </c>
-      <c r="F402">
-        <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="G402">
-        <f t="shared" si="12"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="403" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E403">
-        <v>9</v>
-      </c>
-      <c r="F403">
-        <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="G403">
-        <f t="shared" si="12"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="404" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E404">
-        <v>8</v>
-      </c>
-      <c r="F404">
-        <f t="shared" si="13"/>
-        <v>58</v>
-      </c>
-      <c r="G404">
-        <f t="shared" si="12"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="405" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E405">
-        <v>7</v>
-      </c>
-      <c r="F405">
-        <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
-      <c r="G405">
-        <f t="shared" si="12"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="406" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E406">
-        <v>6</v>
-      </c>
-      <c r="F406">
-        <f t="shared" si="13"/>
-        <v>56</v>
-      </c>
-      <c r="G406">
-        <f t="shared" si="12"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="407" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E407">
-        <v>5</v>
-      </c>
-      <c r="F407">
-        <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="G407">
-        <f t="shared" si="12"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="408" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E408">
-        <v>4</v>
-      </c>
-      <c r="F408">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="G408">
-        <f t="shared" si="12"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="409" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E409">
-        <v>3</v>
-      </c>
-      <c r="F409">
-        <f t="shared" si="13"/>
-        <v>53</v>
-      </c>
-      <c r="G409">
-        <f t="shared" ref="G409:G412" si="14">255-E409</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="410" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E410">
-        <v>2</v>
-      </c>
-      <c r="F410">
-        <f t="shared" si="13"/>
-        <v>52</v>
-      </c>
-      <c r="G410">
-        <f t="shared" si="14"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="411" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E411">
-        <v>1</v>
-      </c>
-      <c r="F411">
-        <f t="shared" si="13"/>
-        <v>51</v>
-      </c>
-      <c r="G411">
-        <f t="shared" si="14"/>
-        <v>254</v>
-      </c>
-    </row>
-    <row r="412" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E412">
-        <v>0</v>
-      </c>
-      <c r="F412">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="G412">
-        <f t="shared" si="14"/>
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -31644,10 +27404,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1" t="s">
         <v>1046</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/rgbvals.xlsx
+++ b/rgbvals.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$522</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1062">
   <si>
     <t>deeppink 3</t>
   </si>
@@ -3213,6 +3214,9 @@
   </si>
   <si>
     <t>For 60 mA</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -9479,7 +9483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="519" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1039">
+  <cellXfs count="1040">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12594,6 +12598,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26258,11 +26265,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -27385,6 +27390,150 @@
       <c r="F124">
         <f t="shared" si="1"/>
         <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125">
+        <v>126</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127">
+        <v>124</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128">
+        <v>123</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129">
+        <v>122</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130">
+        <v>121</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131">
+        <v>120</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F140" si="2">2*E131</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132">
+        <v>119</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133">
+        <v>118</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134">
+        <v>117</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135">
+        <v>116</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136">
+        <v>115</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137">
+        <v>114</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138">
+        <v>113</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139">
+        <v>112</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140">
+        <v>111</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -27469,4 +27618,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1039">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1039">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1039">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1039">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1039">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1039">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1039">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1039">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1039">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1039">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1039">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1039">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1039">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1039">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1039">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1039">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>